--- a/Data/EC/NIT-8904806331.xlsx
+++ b/Data/EC/NIT-8904806331.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53D8E905-2A9E-4F3A-B3E7-C32656928E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD397F7-78DA-4C69-9D5F-E42E803D9607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BE4C875A-87B7-4AF9-9FB7-3312E9E99D3E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0A3F397B-9A69-476B-AC08-A1DA8CB1C352}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="134">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,337 +71,340 @@
     <t>CECILIA ESTHER FLOREZ CORTECERO</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>33148021</t>
+  </si>
+  <si>
+    <t>MARTA JOSEFINA GUARDO PARDO</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2003</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>33148021</t>
-  </si>
-  <si>
-    <t>MARTA JOSEFINA GUARDO PARDO</t>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -500,7 +503,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -513,9 +518,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -715,23 +718,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,10 +762,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,7 +818,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E1803C8-8283-4E93-C9AF-27E7A8D9310A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA30D76-8ABF-F683-5C7E-8DA5B293C612}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,8 +1169,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9B5DD4-099D-41B7-B6B0-BAC855531BED}">
-  <dimension ref="B2:J175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421AAA44-F597-41FA-84DA-332B5A7F4207}">
+  <dimension ref="B2:J176"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1191,7 +1194,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1236,7 +1239,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1268,12 +1271,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4480454</v>
+        <v>4511703</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1284,17 +1287,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1321,13 +1324,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1344,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>13541</v>
+        <v>24640</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1358,16 +1361,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1387,10 +1390,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1404,16 +1407,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1436,7 +1439,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1450,16 +1453,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1479,10 +1482,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1496,16 +1499,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1525,10 +1528,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1542,16 +1545,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1571,10 +1574,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1588,16 +1591,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1617,10 +1620,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1634,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1663,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1680,16 +1683,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1709,10 +1712,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1726,16 +1729,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1755,10 +1758,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1772,16 +1775,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1801,7 +1804,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>24640</v>
@@ -1818,16 +1821,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1847,7 +1850,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>24640</v>
@@ -1864,16 +1867,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1893,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>24640</v>
@@ -1910,16 +1913,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1939,7 +1942,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
         <v>24640</v>
@@ -1956,16 +1959,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1985,7 +1988,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>24640</v>
@@ -2002,16 +2005,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -2031,7 +2034,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>24640</v>
@@ -2048,16 +2051,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -2077,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
         <v>24640</v>
@@ -2094,16 +2097,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2123,7 +2126,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
         <v>24640</v>
@@ -2140,16 +2143,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2169,7 +2172,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
         <v>24640</v>
@@ -2186,16 +2189,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2215,7 +2218,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>24640</v>
@@ -2232,16 +2235,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2261,7 +2264,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>24640</v>
@@ -2278,16 +2281,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2307,7 +2310,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
         <v>24640</v>
@@ -2324,16 +2327,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2353,7 +2356,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
         <v>24640</v>
@@ -2370,16 +2373,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2393,16 +2396,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2416,16 +2419,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2439,16 +2442,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2462,16 +2465,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2485,16 +2488,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2508,16 +2511,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2531,13 +2534,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2554,13 +2557,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2577,13 +2580,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2600,13 +2603,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2623,13 +2626,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2646,13 +2649,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2669,13 +2672,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2692,13 +2695,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2715,13 +2718,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2738,13 +2741,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2761,13 +2764,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2784,13 +2787,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2807,13 +2810,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2830,13 +2833,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2853,13 +2856,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2876,13 +2879,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2899,13 +2902,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2922,13 +2925,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2945,13 +2948,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2968,13 +2971,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2991,13 +2994,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -3014,13 +3017,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -3037,13 +3040,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -3060,13 +3063,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3083,13 +3086,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3106,13 +3109,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3129,13 +3132,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3152,13 +3155,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3175,13 +3178,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3198,13 +3201,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3221,13 +3224,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
@@ -3244,13 +3247,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3267,13 +3270,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3290,13 +3293,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
@@ -3313,13 +3316,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
@@ -3336,13 +3339,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
@@ -3359,16 +3362,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E104" s="16" t="s">
-        <v>101</v>
-      </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>13541</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3382,13 +3385,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>102</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3405,13 +3408,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="F106" s="18">
         <v>31249</v>
@@ -3428,13 +3431,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="F107" s="18">
         <v>31249</v>
@@ -3451,13 +3454,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3474,13 +3477,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3497,13 +3500,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="F110" s="18">
         <v>31249</v>
@@ -3520,13 +3523,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3543,13 +3546,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
@@ -3566,13 +3569,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
@@ -3589,13 +3592,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
@@ -3612,13 +3615,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
@@ -3635,13 +3638,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="F116" s="18">
         <v>31249</v>
@@ -3658,13 +3661,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
@@ -3681,13 +3684,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3704,13 +3707,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
@@ -3727,13 +3730,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
@@ -3750,13 +3753,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
@@ -3773,13 +3776,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
@@ -3796,13 +3799,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="F123" s="18">
         <v>31249</v>
@@ -3819,13 +3822,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F124" s="18">
         <v>31249</v>
@@ -3842,13 +3845,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="F125" s="18">
         <v>31249</v>
@@ -3865,13 +3868,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F126" s="18">
         <v>31249</v>
@@ -3888,13 +3891,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3911,13 +3914,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="F128" s="18">
         <v>31249</v>
@@ -3934,13 +3937,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -3957,13 +3960,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="F130" s="18">
         <v>31249</v>
@@ -3980,13 +3983,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="F131" s="18">
         <v>31249</v>
@@ -4003,13 +4006,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
@@ -4026,13 +4029,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -4049,13 +4052,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F134" s="18">
         <v>31249</v>
@@ -4072,13 +4075,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
@@ -4095,13 +4098,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -4118,13 +4121,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -4141,13 +4144,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -4164,13 +4167,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4187,13 +4190,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4210,13 +4213,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4233,13 +4236,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4256,13 +4259,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4279,16 +4282,16 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="F144" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G144" s="18">
         <v>781242</v>
@@ -4302,16 +4305,16 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="F145" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G145" s="18">
         <v>781242</v>
@@ -4325,16 +4328,16 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="F146" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G146" s="18">
         <v>781242</v>
@@ -4348,16 +4351,16 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="F147" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G147" s="18">
         <v>781242</v>
@@ -4371,16 +4374,16 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="F148" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G148" s="18">
         <v>781242</v>
@@ -4394,16 +4397,16 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="F149" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G149" s="18">
         <v>781242</v>
@@ -4417,16 +4420,16 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="F150" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G150" s="18">
         <v>781242</v>
@@ -4440,16 +4443,16 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="F151" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G151" s="18">
         <v>781242</v>
@@ -4463,16 +4466,16 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="F152" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G152" s="18">
         <v>781242</v>
@@ -4486,16 +4489,16 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="F153" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G153" s="18">
         <v>781242</v>
@@ -4509,16 +4512,16 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="F154" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G154" s="18">
         <v>781242</v>
@@ -4532,16 +4535,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="F155" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G155" s="18">
         <v>781242</v>
@@ -4555,16 +4558,16 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="F156" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G156" s="18">
         <v>781242</v>
@@ -4578,16 +4581,16 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F157" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G157" s="18">
         <v>781242</v>
@@ -4601,16 +4604,16 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F158" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G158" s="18">
         <v>781242</v>
@@ -4624,16 +4627,16 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="F159" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G159" s="18">
         <v>781242</v>
@@ -4647,16 +4650,16 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="F160" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G160" s="18">
         <v>781242</v>
@@ -4670,16 +4673,16 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="F161" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G161" s="18">
         <v>781242</v>
@@ -4693,16 +4696,16 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="F162" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G162" s="18">
         <v>781242</v>
@@ -4716,16 +4719,16 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="F163" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G163" s="18">
         <v>781242</v>
@@ -4739,16 +4742,16 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="F164" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G164" s="18">
         <v>781242</v>
@@ -4762,16 +4765,16 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="F165" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G165" s="18">
         <v>781242</v>
@@ -4785,16 +4788,16 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="F166" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G166" s="18">
         <v>781242</v>
@@ -4808,16 +4811,16 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="F167" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G167" s="18">
         <v>781242</v>
@@ -4831,16 +4834,16 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="F168" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G168" s="18">
         <v>781242</v>
@@ -4850,42 +4853,54 @@
       <c r="J168" s="20"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B169" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D169" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E169" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F169" s="24">
-        <v>25774</v>
-      </c>
-      <c r="G169" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H169" s="25"/>
-      <c r="I169" s="25"/>
-      <c r="J169" s="26"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B174" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C174" s="32"/>
-      <c r="H174" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
+      <c r="B169" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F169" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G169" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="20"/>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B170" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F170" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G170" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H170" s="25"/>
+      <c r="I170" s="25"/>
+      <c r="J170" s="26"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B175" s="32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C175" s="32"/>
       <c r="H175" s="1" t="s">
@@ -4894,12 +4909,23 @@
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
     </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B176" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C176" s="32"/>
+      <c r="H176" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B176:C176"/>
     <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="H176:J176"/>
     <mergeCell ref="H175:J175"/>
-    <mergeCell ref="H174:J174"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8904806331.xlsx
+++ b/Data/EC/NIT-8904806331.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD397F7-78DA-4C69-9D5F-E42E803D9607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91016D08-C0ED-4C8E-9CE6-992FFE9953E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0A3F397B-9A69-476B-AC08-A1DA8CB1C352}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C2A2EB05-44C5-4396-8063-26BD9B23593B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="135">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -448,7 +451,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,9 +506,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -518,7 +519,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -712,29 +715,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,19 +756,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,7 +827,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA30D76-8ABF-F683-5C7E-8DA5B293C612}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6969CF-3DB8-F072-CDB7-156C150C63CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1169,80 +1178,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421AAA44-F597-41FA-84DA-332B5A7F4207}">
-  <dimension ref="B2:J176"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA646DD-1CC2-4C16-A328-8C1EC2A64A7C}">
+  <dimension ref="B2:J177"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1252,13 +1261,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8904806331</v>
       </c>
@@ -1268,15 +1277,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>4511703</v>
+        <v>4542952</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1284,27 +1293,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F13" s="5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1324,16 +1333,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1343,20 +1352,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>24640</v>
       </c>
-      <c r="G16" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G16" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1366,20 +1375,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>25774</v>
       </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1389,20 +1398,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>24640</v>
       </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1412,20 +1421,20 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>25774</v>
       </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1435,20 +1444,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>24640</v>
       </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1458,20 +1467,20 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>25774</v>
       </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1481,20 +1490,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>24640</v>
       </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1504,20 +1513,20 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>25774</v>
       </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1527,20 +1536,20 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>24640</v>
       </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1550,20 +1559,20 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>25774</v>
       </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1573,20 +1582,20 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>24640</v>
       </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1596,20 +1605,20 @@
       <c r="D27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>25774</v>
       </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1619,20 +1628,20 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>24640</v>
       </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1642,20 +1651,20 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>25774</v>
       </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1665,20 +1674,20 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>24640</v>
       </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1688,20 +1697,20 @@
       <c r="D31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>25774</v>
       </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1711,20 +1720,20 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>24640</v>
       </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1734,20 +1743,20 @@
       <c r="D33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>25774</v>
       </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1757,20 +1766,20 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>24640</v>
       </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1780,20 +1789,20 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>25774</v>
       </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1803,20 +1812,20 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>24640</v>
       </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1826,20 +1835,20 @@
       <c r="D37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>25774</v>
       </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1849,20 +1858,20 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>24640</v>
       </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1872,20 +1881,20 @@
       <c r="D39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>25774</v>
       </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1895,20 +1904,20 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>24640</v>
       </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1918,20 +1927,20 @@
       <c r="D41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>25774</v>
       </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1941,20 +1950,20 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>24640</v>
       </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1964,20 +1973,20 @@
       <c r="D43" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>25774</v>
       </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1987,20 +1996,20 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>24640</v>
       </c>
-      <c r="G44" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G44" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -2010,20 +2019,20 @@
       <c r="D45" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>25774</v>
       </c>
-      <c r="G45" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G45" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -2033,20 +2042,20 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>24640</v>
       </c>
-      <c r="G46" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G46" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -2056,20 +2065,20 @@
       <c r="D47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>25774</v>
       </c>
-      <c r="G47" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G47" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -2079,20 +2088,20 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>24640</v>
       </c>
-      <c r="G48" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G48" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -2102,20 +2111,20 @@
       <c r="D49" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>25774</v>
       </c>
-      <c r="G49" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G49" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -2125,20 +2134,20 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="19">
         <v>24640</v>
       </c>
-      <c r="G50" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G50" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2148,20 +2157,20 @@
       <c r="D51" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>25774</v>
       </c>
-      <c r="G51" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G51" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2171,20 +2180,20 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>24640</v>
       </c>
-      <c r="G52" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G52" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2194,20 +2203,20 @@
       <c r="D53" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="19">
         <v>25774</v>
       </c>
-      <c r="G53" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G53" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2217,20 +2226,20 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="19">
         <v>24640</v>
       </c>
-      <c r="G54" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G54" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2240,20 +2249,20 @@
       <c r="D55" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="19">
         <v>25774</v>
       </c>
-      <c r="G55" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G55" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2263,20 +2272,20 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="19">
         <v>24640</v>
       </c>
-      <c r="G56" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G56" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2286,20 +2295,20 @@
       <c r="D57" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>25774</v>
       </c>
-      <c r="G57" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G57" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2309,20 +2318,20 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="19">
         <v>24640</v>
       </c>
-      <c r="G58" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G58" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2332,20 +2341,20 @@
       <c r="D59" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="19">
         <v>25774</v>
       </c>
-      <c r="G59" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G59" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2355,20 +2364,20 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="19">
         <v>24640</v>
       </c>
-      <c r="G60" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G60" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2378,20 +2387,20 @@
       <c r="D61" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="19">
         <v>25774</v>
       </c>
-      <c r="G61" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G61" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2401,20 +2410,20 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="19">
         <v>24640</v>
       </c>
-      <c r="G62" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G62" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2424,20 +2433,20 @@
       <c r="D63" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="19">
         <v>25774</v>
       </c>
-      <c r="G63" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G63" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2447,20 +2456,20 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="19">
         <v>24640</v>
       </c>
-      <c r="G64" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G64" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2470,20 +2479,20 @@
       <c r="D65" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="19">
         <v>25774</v>
       </c>
-      <c r="G65" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G65" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2493,20 +2502,20 @@
       <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="19">
         <v>24640</v>
       </c>
-      <c r="G66" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G66" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2516,20 +2525,20 @@
       <c r="D67" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="19">
         <v>25774</v>
       </c>
-      <c r="G67" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G67" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2539,20 +2548,20 @@
       <c r="D68" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F68" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G68" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F68" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G68" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2562,20 +2571,20 @@
       <c r="D69" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F69" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G69" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F69" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G69" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2585,20 +2594,20 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F70" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G70" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F70" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G70" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2608,20 +2617,20 @@
       <c r="D71" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F71" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G71" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F71" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G71" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2631,20 +2640,20 @@
       <c r="D72" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F72" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G72" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F72" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G72" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2654,20 +2663,20 @@
       <c r="D73" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G73" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F73" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G73" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2677,20 +2686,20 @@
       <c r="D74" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F74" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G74" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F74" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G74" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2700,20 +2709,20 @@
       <c r="D75" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G75" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F75" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G75" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2723,20 +2732,20 @@
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G76" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F76" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G76" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2746,20 +2755,20 @@
       <c r="D77" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F77" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G77" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F77" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G77" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
+    </row>
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2769,20 +2778,20 @@
       <c r="D78" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F78" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G78" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F78" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G78" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2792,20 +2801,20 @@
       <c r="D79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F79" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G79" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F79" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G79" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2815,20 +2824,20 @@
       <c r="D80" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F80" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G80" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F80" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G80" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2838,20 +2847,20 @@
       <c r="D81" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F81" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G81" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F81" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G81" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2861,20 +2870,20 @@
       <c r="D82" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G82" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F82" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G82" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
@@ -2884,20 +2893,20 @@
       <c r="D83" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F83" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G83" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F83" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G83" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
+    </row>
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2907,20 +2916,20 @@
       <c r="D84" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G84" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F84" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G84" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
@@ -2930,20 +2939,20 @@
       <c r="D85" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F85" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G85" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F85" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G85" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
@@ -2953,20 +2962,20 @@
       <c r="D86" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F86" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G86" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F86" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G86" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
+    </row>
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
@@ -2976,20 +2985,20 @@
       <c r="D87" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F87" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G87" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F87" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G87" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
+    </row>
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
@@ -2999,20 +3008,20 @@
       <c r="D88" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F88" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G88" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F88" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G88" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
@@ -3022,20 +3031,20 @@
       <c r="D89" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F89" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G89" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F89" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G89" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
+    </row>
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
@@ -3045,20 +3054,20 @@
       <c r="D90" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F90" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G90" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F90" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G90" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
+    </row>
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
@@ -3068,20 +3077,20 @@
       <c r="D91" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F91" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G91" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F91" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G91" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
+    </row>
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
@@ -3091,20 +3100,20 @@
       <c r="D92" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F92" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G92" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F92" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G92" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
+    </row>
+    <row r="93" spans="2:10">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
@@ -3114,20 +3123,20 @@
       <c r="D93" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F93" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G93" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F93" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G93" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
+    </row>
+    <row r="94" spans="2:10">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
@@ -3137,20 +3146,20 @@
       <c r="D94" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F94" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G94" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F94" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G94" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="2:10">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
@@ -3160,20 +3169,20 @@
       <c r="D95" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F95" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G95" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F95" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G95" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
+    </row>
+    <row r="96" spans="2:10">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
@@ -3183,20 +3192,20 @@
       <c r="D96" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F96" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G96" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F96" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G96" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
+    </row>
+    <row r="97" spans="2:10">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
@@ -3206,20 +3215,20 @@
       <c r="D97" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F97" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G97" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F97" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G97" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
+    </row>
+    <row r="98" spans="2:10">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
@@ -3229,20 +3238,20 @@
       <c r="D98" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F98" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G98" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F98" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G98" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
+    </row>
+    <row r="99" spans="2:10">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
@@ -3252,20 +3261,20 @@
       <c r="D99" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F99" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G99" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F99" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G99" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
+    </row>
+    <row r="100" spans="2:10">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
@@ -3275,20 +3284,20 @@
       <c r="D100" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F100" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G100" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F100" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G100" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
+    </row>
+    <row r="101" spans="2:10">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
@@ -3298,20 +3307,20 @@
       <c r="D101" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F101" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G101" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F101" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G101" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
+    </row>
+    <row r="102" spans="2:10">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
@@ -3321,20 +3330,20 @@
       <c r="D102" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F102" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G102" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F102" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G102" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
+    </row>
+    <row r="103" spans="2:10">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
@@ -3344,20 +3353,20 @@
       <c r="D103" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F103" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G103" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F103" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G103" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
+    </row>
+    <row r="104" spans="2:10">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
@@ -3367,20 +3376,20 @@
       <c r="D104" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F104" s="18">
+      <c r="F104" s="19">
         <v>13541</v>
       </c>
-      <c r="G104" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G104" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
+    </row>
+    <row r="105" spans="2:10">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
@@ -3390,20 +3399,20 @@
       <c r="D105" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F105" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G105" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F105" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G105" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
+    </row>
+    <row r="106" spans="2:10">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
@@ -3413,20 +3422,20 @@
       <c r="D106" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F106" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G106" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F106" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G106" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
+    </row>
+    <row r="107" spans="2:10">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
@@ -3436,20 +3445,20 @@
       <c r="D107" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F107" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G107" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F107" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G107" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
+    </row>
+    <row r="108" spans="2:10">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
@@ -3459,20 +3468,20 @@
       <c r="D108" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F108" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G108" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F108" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G108" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
+    </row>
+    <row r="109" spans="2:10">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
@@ -3482,20 +3491,20 @@
       <c r="D109" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F109" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G109" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F109" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G109" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
+    </row>
+    <row r="110" spans="2:10">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
@@ -3505,20 +3514,20 @@
       <c r="D110" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F110" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G110" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F110" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G110" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
+    </row>
+    <row r="111" spans="2:10">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
@@ -3528,20 +3537,20 @@
       <c r="D111" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F111" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G111" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F111" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G111" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
+    </row>
+    <row r="112" spans="2:10">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
@@ -3551,20 +3560,20 @@
       <c r="D112" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F112" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G112" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F112" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G112" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
+    </row>
+    <row r="113" spans="2:10">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
@@ -3574,20 +3583,20 @@
       <c r="D113" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F113" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G113" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F113" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G113" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
+    </row>
+    <row r="114" spans="2:10">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
@@ -3597,20 +3606,20 @@
       <c r="D114" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F114" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G114" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F114" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G114" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
+    </row>
+    <row r="115" spans="2:10">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
@@ -3620,20 +3629,20 @@
       <c r="D115" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F115" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G115" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F115" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G115" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
+    </row>
+    <row r="116" spans="2:10">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
@@ -3643,20 +3652,20 @@
       <c r="D116" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F116" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G116" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F116" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G116" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
+    </row>
+    <row r="117" spans="2:10">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
@@ -3666,20 +3675,20 @@
       <c r="D117" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F117" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G117" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F117" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G117" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
+    </row>
+    <row r="118" spans="2:10">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
@@ -3689,20 +3698,20 @@
       <c r="D118" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F118" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G118" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F118" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G118" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
+    </row>
+    <row r="119" spans="2:10">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
@@ -3712,20 +3721,20 @@
       <c r="D119" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F119" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G119" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F119" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G119" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
+    </row>
+    <row r="120" spans="2:10">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
@@ -3735,20 +3744,20 @@
       <c r="D120" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F120" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G120" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F120" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G120" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
+    </row>
+    <row r="121" spans="2:10">
       <c r="B121" s="15" t="s">
         <v>8</v>
       </c>
@@ -3758,20 +3767,20 @@
       <c r="D121" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F121" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G121" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F121" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G121" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
+    </row>
+    <row r="122" spans="2:10">
       <c r="B122" s="15" t="s">
         <v>8</v>
       </c>
@@ -3781,20 +3790,20 @@
       <c r="D122" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F122" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G122" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F122" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G122" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="21"/>
+    </row>
+    <row r="123" spans="2:10">
       <c r="B123" s="15" t="s">
         <v>8</v>
       </c>
@@ -3804,20 +3813,20 @@
       <c r="D123" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F123" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G123" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F123" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G123" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="21"/>
+    </row>
+    <row r="124" spans="2:10">
       <c r="B124" s="15" t="s">
         <v>8</v>
       </c>
@@ -3827,20 +3836,20 @@
       <c r="D124" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F124" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G124" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F124" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G124" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
+    </row>
+    <row r="125" spans="2:10">
       <c r="B125" s="15" t="s">
         <v>8</v>
       </c>
@@ -3850,20 +3859,20 @@
       <c r="D125" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F125" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G125" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F125" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G125" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="21"/>
+    </row>
+    <row r="126" spans="2:10">
       <c r="B126" s="15" t="s">
         <v>8</v>
       </c>
@@ -3873,20 +3882,20 @@
       <c r="D126" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F126" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G126" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F126" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G126" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="21"/>
+    </row>
+    <row r="127" spans="2:10">
       <c r="B127" s="15" t="s">
         <v>8</v>
       </c>
@@ -3896,20 +3905,20 @@
       <c r="D127" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F127" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G127" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F127" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G127" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="21"/>
+    </row>
+    <row r="128" spans="2:10">
       <c r="B128" s="15" t="s">
         <v>8</v>
       </c>
@@ -3919,20 +3928,20 @@
       <c r="D128" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F128" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G128" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F128" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G128" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="21"/>
+    </row>
+    <row r="129" spans="2:10">
       <c r="B129" s="15" t="s">
         <v>8</v>
       </c>
@@ -3942,20 +3951,20 @@
       <c r="D129" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F129" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G129" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F129" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G129" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="21"/>
+    </row>
+    <row r="130" spans="2:10">
       <c r="B130" s="15" t="s">
         <v>8</v>
       </c>
@@ -3965,20 +3974,20 @@
       <c r="D130" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F130" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G130" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F130" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G130" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="21"/>
+    </row>
+    <row r="131" spans="2:10">
       <c r="B131" s="15" t="s">
         <v>8</v>
       </c>
@@ -3988,20 +3997,20 @@
       <c r="D131" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F131" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G131" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F131" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G131" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="21"/>
+    </row>
+    <row r="132" spans="2:10">
       <c r="B132" s="15" t="s">
         <v>8</v>
       </c>
@@ -4011,20 +4020,20 @@
       <c r="D132" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F132" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G132" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F132" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G132" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="21"/>
+    </row>
+    <row r="133" spans="2:10">
       <c r="B133" s="15" t="s">
         <v>8</v>
       </c>
@@ -4034,20 +4043,20 @@
       <c r="D133" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F133" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G133" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F133" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G133" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="21"/>
+    </row>
+    <row r="134" spans="2:10">
       <c r="B134" s="15" t="s">
         <v>8</v>
       </c>
@@ -4057,20 +4066,20 @@
       <c r="D134" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="E134" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F134" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G134" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F134" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G134" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="21"/>
+    </row>
+    <row r="135" spans="2:10">
       <c r="B135" s="15" t="s">
         <v>8</v>
       </c>
@@ -4080,20 +4089,20 @@
       <c r="D135" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F135" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G135" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F135" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G135" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="21"/>
+    </row>
+    <row r="136" spans="2:10">
       <c r="B136" s="15" t="s">
         <v>8</v>
       </c>
@@ -4103,20 +4112,20 @@
       <c r="D136" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F136" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G136" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F136" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G136" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="21"/>
+    </row>
+    <row r="137" spans="2:10">
       <c r="B137" s="15" t="s">
         <v>8</v>
       </c>
@@ -4126,20 +4135,20 @@
       <c r="D137" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F137" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G137" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F137" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G137" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="21"/>
+    </row>
+    <row r="138" spans="2:10">
       <c r="B138" s="15" t="s">
         <v>8</v>
       </c>
@@ -4149,20 +4158,20 @@
       <c r="D138" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F138" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G138" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F138" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G138" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="21"/>
+    </row>
+    <row r="139" spans="2:10">
       <c r="B139" s="15" t="s">
         <v>8</v>
       </c>
@@ -4172,20 +4181,20 @@
       <c r="D139" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F139" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G139" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F139" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G139" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="21"/>
+    </row>
+    <row r="140" spans="2:10">
       <c r="B140" s="15" t="s">
         <v>8</v>
       </c>
@@ -4195,20 +4204,20 @@
       <c r="D140" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F140" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G140" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F140" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G140" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="21"/>
+    </row>
+    <row r="141" spans="2:10">
       <c r="B141" s="15" t="s">
         <v>8</v>
       </c>
@@ -4218,20 +4227,20 @@
       <c r="D141" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F141" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G141" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F141" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G141" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="21"/>
+    </row>
+    <row r="142" spans="2:10">
       <c r="B142" s="15" t="s">
         <v>8</v>
       </c>
@@ -4241,20 +4250,20 @@
       <c r="D142" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F142" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G142" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F142" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G142" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="21"/>
+    </row>
+    <row r="143" spans="2:10">
       <c r="B143" s="15" t="s">
         <v>8</v>
       </c>
@@ -4264,20 +4273,20 @@
       <c r="D143" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F143" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G143" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F143" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G143" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="21"/>
+    </row>
+    <row r="144" spans="2:10">
       <c r="B144" s="15" t="s">
         <v>8</v>
       </c>
@@ -4287,20 +4296,20 @@
       <c r="D144" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E144" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F144" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G144" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F144" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G144" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="21"/>
+    </row>
+    <row r="145" spans="2:10">
       <c r="B145" s="15" t="s">
         <v>8</v>
       </c>
@@ -4310,20 +4319,20 @@
       <c r="D145" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F145" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G145" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F145" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G145" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="21"/>
+    </row>
+    <row r="146" spans="2:10">
       <c r="B146" s="15" t="s">
         <v>8</v>
       </c>
@@ -4333,20 +4342,20 @@
       <c r="D146" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F146" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G146" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F146" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G146" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="21"/>
+    </row>
+    <row r="147" spans="2:10">
       <c r="B147" s="15" t="s">
         <v>8</v>
       </c>
@@ -4356,20 +4365,20 @@
       <c r="D147" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F147" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G147" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F147" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G147" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="21"/>
+    </row>
+    <row r="148" spans="2:10">
       <c r="B148" s="15" t="s">
         <v>8</v>
       </c>
@@ -4379,20 +4388,20 @@
       <c r="D148" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F148" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G148" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F148" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G148" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="21"/>
+    </row>
+    <row r="149" spans="2:10">
       <c r="B149" s="15" t="s">
         <v>8</v>
       </c>
@@ -4402,20 +4411,20 @@
       <c r="D149" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F149" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G149" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F149" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G149" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="21"/>
+    </row>
+    <row r="150" spans="2:10">
       <c r="B150" s="15" t="s">
         <v>8</v>
       </c>
@@ -4425,20 +4434,20 @@
       <c r="D150" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F150" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G150" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F150" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G150" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="21"/>
+    </row>
+    <row r="151" spans="2:10">
       <c r="B151" s="15" t="s">
         <v>8</v>
       </c>
@@ -4448,20 +4457,20 @@
       <c r="D151" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="E151" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F151" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G151" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F151" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G151" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="21"/>
+    </row>
+    <row r="152" spans="2:10">
       <c r="B152" s="15" t="s">
         <v>8</v>
       </c>
@@ -4471,20 +4480,20 @@
       <c r="D152" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F152" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G152" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F152" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G152" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="21"/>
+    </row>
+    <row r="153" spans="2:10">
       <c r="B153" s="15" t="s">
         <v>8</v>
       </c>
@@ -4494,20 +4503,20 @@
       <c r="D153" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F153" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G153" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F153" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G153" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="21"/>
+    </row>
+    <row r="154" spans="2:10">
       <c r="B154" s="15" t="s">
         <v>8</v>
       </c>
@@ -4517,20 +4526,20 @@
       <c r="D154" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E154" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F154" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G154" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F154" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G154" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="21"/>
+    </row>
+    <row r="155" spans="2:10">
       <c r="B155" s="15" t="s">
         <v>8</v>
       </c>
@@ -4540,20 +4549,20 @@
       <c r="D155" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E155" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F155" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G155" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F155" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G155" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="21"/>
+    </row>
+    <row r="156" spans="2:10">
       <c r="B156" s="15" t="s">
         <v>8</v>
       </c>
@@ -4563,20 +4572,20 @@
       <c r="D156" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F156" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G156" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F156" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G156" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="21"/>
+    </row>
+    <row r="157" spans="2:10">
       <c r="B157" s="15" t="s">
         <v>8</v>
       </c>
@@ -4586,20 +4595,20 @@
       <c r="D157" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F157" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G157" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F157" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G157" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="21"/>
+    </row>
+    <row r="158" spans="2:10">
       <c r="B158" s="15" t="s">
         <v>8</v>
       </c>
@@ -4609,20 +4618,20 @@
       <c r="D158" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="E158" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F158" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G158" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F158" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G158" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="21"/>
+    </row>
+    <row r="159" spans="2:10">
       <c r="B159" s="15" t="s">
         <v>8</v>
       </c>
@@ -4632,20 +4641,20 @@
       <c r="D159" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E159" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F159" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G159" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F159" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G159" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="21"/>
+    </row>
+    <row r="160" spans="2:10">
       <c r="B160" s="15" t="s">
         <v>8</v>
       </c>
@@ -4655,20 +4664,20 @@
       <c r="D160" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F160" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G160" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F160" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G160" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="21"/>
+    </row>
+    <row r="161" spans="2:10">
       <c r="B161" s="15" t="s">
         <v>8</v>
       </c>
@@ -4678,20 +4687,20 @@
       <c r="D161" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="E161" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F161" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G161" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F161" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G161" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="21"/>
+    </row>
+    <row r="162" spans="2:10">
       <c r="B162" s="15" t="s">
         <v>8</v>
       </c>
@@ -4701,20 +4710,20 @@
       <c r="D162" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F162" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G162" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F162" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G162" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="21"/>
+    </row>
+    <row r="163" spans="2:10">
       <c r="B163" s="15" t="s">
         <v>8</v>
       </c>
@@ -4724,20 +4733,20 @@
       <c r="D163" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F163" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G163" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F163" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G163" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="21"/>
+    </row>
+    <row r="164" spans="2:10">
       <c r="B164" s="15" t="s">
         <v>8</v>
       </c>
@@ -4747,20 +4756,20 @@
       <c r="D164" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F164" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G164" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F164" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G164" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="21"/>
+    </row>
+    <row r="165" spans="2:10">
       <c r="B165" s="15" t="s">
         <v>8</v>
       </c>
@@ -4770,20 +4779,20 @@
       <c r="D165" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="E165" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F165" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G165" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F165" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G165" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="21"/>
+    </row>
+    <row r="166" spans="2:10">
       <c r="B166" s="15" t="s">
         <v>8</v>
       </c>
@@ -4793,20 +4802,20 @@
       <c r="D166" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="E166" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F166" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G166" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F166" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G166" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="21"/>
+    </row>
+    <row r="167" spans="2:10">
       <c r="B167" s="15" t="s">
         <v>8</v>
       </c>
@@ -4816,20 +4825,20 @@
       <c r="D167" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="E167" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F167" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G167" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F167" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G167" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="21"/>
+    </row>
+    <row r="168" spans="2:10">
       <c r="B168" s="15" t="s">
         <v>8</v>
       </c>
@@ -4839,20 +4848,20 @@
       <c r="D168" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="E168" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F168" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G168" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F168" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G168" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="21"/>
+    </row>
+    <row r="169" spans="2:10">
       <c r="B169" s="15" t="s">
         <v>8</v>
       </c>
@@ -4862,70 +4871,93 @@
       <c r="D169" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="E169" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F169" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G169" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B170" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E170" s="22" t="s">
+      <c r="F169" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G169" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="21"/>
+    </row>
+    <row r="170" spans="2:10">
+      <c r="B170" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F170" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G170" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H170" s="25"/>
-      <c r="I170" s="25"/>
-      <c r="J170" s="26"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B175" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C175" s="32"/>
-      <c r="H175" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B176" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C176" s="32"/>
+      <c r="F170" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G170" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="21"/>
+    </row>
+    <row r="171" spans="2:10">
+      <c r="B171" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F171" s="26">
+        <v>31249</v>
+      </c>
+      <c r="G171" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
+      <c r="J171" s="28"/>
+    </row>
+    <row r="176" spans="2:10">
+      <c r="B176" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C176" s="34"/>
       <c r="H176" s="1" t="s">
         <v>133</v>
       </c>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
+    <row r="177" spans="2:10">
+      <c r="B177" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C177" s="34"/>
+      <c r="H177" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B177:C177"/>
     <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="H177:J177"/>
     <mergeCell ref="H176:J176"/>
-    <mergeCell ref="H175:J175"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
